--- a/productos.xlsx
+++ b/productos.xlsx
@@ -4,10 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Inventario" sheetId="1" r:id="rId4"/>
+    <sheet name="Cerveza" sheetId="2" r:id="rId5"/>
+    <sheet name="Vinos" sheetId="3" r:id="rId6"/>
+    <sheet name="Destilados" sheetId="4" r:id="rId7"/>
+    <sheet name="Abarrotes" sheetId="5" r:id="rId8"/>
+    <sheet name="Bebidas" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>Nombre</t>
   </si>
@@ -29,10 +34,823 @@
     <t>Precio</t>
   </si>
   <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>Austral Calafate</t>
+  </si>
+  <si>
+    <t>500ml</t>
+  </si>
+  <si>
+    <t>botella</t>
+  </si>
+  <si>
+    <t>Kunstman Valdivia</t>
+  </si>
+  <si>
+    <t>Kunstman torobayo</t>
+  </si>
+  <si>
+    <t>Kunstman Miel</t>
+  </si>
+  <si>
+    <t>D'olbek (Maqui)</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>650ml</t>
+  </si>
+  <si>
+    <t>Royal Guard</t>
+  </si>
+  <si>
+    <t>Heineken</t>
+  </si>
+  <si>
+    <t>Corona</t>
+  </si>
+  <si>
+    <t>620ml</t>
+  </si>
+  <si>
+    <t>Budweiser</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>710cc</t>
+  </si>
+  <si>
+    <t>lata</t>
+  </si>
+  <si>
+    <t>Coors</t>
+  </si>
+  <si>
+    <t>Cristal</t>
+  </si>
+  <si>
     <t>Escudo Silver</t>
   </si>
   <si>
+    <t>Quilmes</t>
+  </si>
+  <si>
+    <t>470cc</t>
+  </si>
+  <si>
+    <t>Escudo</t>
+  </si>
+  <si>
+    <t>350ml</t>
+  </si>
+  <si>
+    <t>Morenita</t>
+  </si>
+  <si>
+    <t>Patagonia Austral red lager</t>
+  </si>
+  <si>
+    <t>Patagonia Austral black lager</t>
+  </si>
+  <si>
+    <t>Sol mix mango margarita</t>
+  </si>
+  <si>
+    <t>Lemon stone</t>
+  </si>
+  <si>
+    <t>Mango stone</t>
+  </si>
+  <si>
+    <t>Calatrava</t>
+  </si>
+  <si>
+    <t>478ml</t>
+  </si>
+  <si>
+    <t>Becker</t>
+  </si>
+  <si>
     <t>330cc</t>
+  </si>
+  <si>
+    <t>Heineken cero</t>
+  </si>
+  <si>
+    <t>Royal Guard cero</t>
+  </si>
+  <si>
+    <t>355ml</t>
+  </si>
+  <si>
+    <t>Royal Guard Golden</t>
+  </si>
+  <si>
+    <t>Guayacan</t>
+  </si>
+  <si>
+    <t>Austral lager</t>
+  </si>
+  <si>
+    <t>Stella Artois</t>
+  </si>
+  <si>
+    <t>120 cavernet sauvignon</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>120 Merlot</t>
+  </si>
+  <si>
+    <t>120 Carmenere</t>
+  </si>
+  <si>
+    <t>1.5L</t>
+  </si>
+  <si>
+    <t>120 Syrah</t>
+  </si>
+  <si>
+    <t>120 Dulce</t>
+  </si>
+  <si>
+    <t>120 blanco</t>
+  </si>
+  <si>
+    <t>700ml</t>
+  </si>
+  <si>
+    <t>exportacion cavernet sauvignon</t>
+  </si>
+  <si>
+    <t>exportacion merlot</t>
+  </si>
+  <si>
+    <t>exportacion reservado merlot</t>
+  </si>
+  <si>
+    <t>exportacion dulce frutilla tinto</t>
+  </si>
+  <si>
+    <t>exportacion dulce melon blanco</t>
+  </si>
+  <si>
+    <t>exportaacion dulce frutilla naranja</t>
+  </si>
+  <si>
+    <t>exportacion blanco dulce</t>
+  </si>
+  <si>
+    <t>Gato cavernet</t>
+  </si>
+  <si>
+    <t>Gato merlot</t>
+  </si>
+  <si>
+    <t>Gato Dulce tinto (seleccion)</t>
+  </si>
+  <si>
+    <t>Gato borgoño frutilla</t>
+  </si>
+  <si>
+    <t>Gato seleccion dulce rose</t>
+  </si>
+  <si>
+    <t>Gato blanco chirimoya</t>
+  </si>
+  <si>
+    <t>Gato Blanco</t>
+  </si>
+  <si>
+    <t>Gato seleccion dulce</t>
+  </si>
+  <si>
+    <t>Gato Rose</t>
+  </si>
+  <si>
+    <t>Camino de chile dulce tinto</t>
+  </si>
+  <si>
+    <t>Camino de chile dulce blanco</t>
+  </si>
+  <si>
+    <t>Casillero del diablo merlot</t>
+  </si>
+  <si>
+    <t>750ml</t>
+  </si>
+  <si>
+    <t>Casillero del diablo cavernet</t>
+  </si>
+  <si>
+    <t>Casillero del diablo camenere</t>
+  </si>
+  <si>
+    <t>Casillero cabernet reserva</t>
+  </si>
+  <si>
+    <t>Diablo Red</t>
+  </si>
+  <si>
+    <t>Diablo merlot</t>
+  </si>
+  <si>
+    <t>Diablo Cabernet</t>
+  </si>
+  <si>
+    <t>Oveja negra cabernet S</t>
+  </si>
+  <si>
+    <t>Oveja negra carmenere</t>
+  </si>
+  <si>
+    <t>Mulas carmenere</t>
+  </si>
+  <si>
+    <t>Mulas merlot</t>
+  </si>
+  <si>
+    <t>Toro de piedra carmenere</t>
+  </si>
+  <si>
+    <t>Toro de piedra merlot</t>
+  </si>
+  <si>
+    <t>toro de piedra cabernet</t>
+  </si>
+  <si>
+    <t>Misiones R cabernet medium</t>
+  </si>
+  <si>
+    <t>Misiones R reserva cabernet</t>
+  </si>
+  <si>
+    <t>Misiones R reserva carmenere</t>
+  </si>
+  <si>
+    <t>Misiones R merlot</t>
+  </si>
+  <si>
+    <t>Misiones R carmenere</t>
+  </si>
+  <si>
+    <t>Misiones R late harvest</t>
+  </si>
+  <si>
+    <t>Misiones R Rose harvest</t>
+  </si>
+  <si>
+    <t>Santa Helena Rose</t>
+  </si>
+  <si>
+    <t>caja</t>
+  </si>
+  <si>
+    <t>Santa Helena Tinto</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>Santa Helena Blanco</t>
+  </si>
+  <si>
+    <t>Exportacion Tinto</t>
+  </si>
+  <si>
+    <t>Esportacion Blanco</t>
+  </si>
+  <si>
+    <t>Exportacion Blanco</t>
+  </si>
+  <si>
+    <t>Clos de pirque Tinto</t>
+  </si>
+  <si>
+    <t>Clos de pirque blanco</t>
+  </si>
+  <si>
+    <t>Grosso Cooler frutilla</t>
+  </si>
+  <si>
+    <t>Grosso cooler piña</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Aperol</t>
+  </si>
+  <si>
+    <t>Bombay sappheire</t>
+  </si>
+  <si>
+    <t>Merendero</t>
+  </si>
+  <si>
+    <t>Eristof blanco</t>
+  </si>
+  <si>
+    <t>Eristof Negro</t>
+  </si>
+  <si>
+    <t>Vodka.PL pera</t>
+  </si>
+  <si>
+    <t>Vodka Sky stra</t>
+  </si>
+  <si>
+    <t>Coñac 3 palos</t>
+  </si>
+  <si>
+    <t>Agua ardiente doñihue</t>
+  </si>
+  <si>
+    <t>900ml</t>
+  </si>
+  <si>
+    <t>Violento</t>
+  </si>
+  <si>
+    <t>225ml</t>
+  </si>
+  <si>
+    <t>Bou barrueta Maria's</t>
+  </si>
+  <si>
+    <t>Bou barrueta Romanet</t>
+  </si>
+  <si>
+    <t>Bou barrueta Mis nietas</t>
+  </si>
+  <si>
+    <t>Los nichos 40°</t>
+  </si>
+  <si>
+    <t>Los nichos 35°</t>
+  </si>
+  <si>
+    <t>Alto del carnen reserva blanco</t>
+  </si>
+  <si>
+    <t>Alto del carmen etiqueta negra</t>
+  </si>
+  <si>
+    <t>Alto del carmen</t>
+  </si>
+  <si>
+    <t>3R 40°</t>
+  </si>
+  <si>
+    <t>Malpaso Verde 35°</t>
+  </si>
+  <si>
+    <t>Malpaso tropical</t>
+  </si>
+  <si>
+    <t>Malpaso manzana verde</t>
+  </si>
+  <si>
+    <t>Malpaso vainilla</t>
+  </si>
+  <si>
+    <t>Mistral</t>
+  </si>
+  <si>
+    <t>Mistral reservado</t>
+  </si>
+  <si>
+    <t>Mistral especial</t>
+  </si>
+  <si>
+    <t>Mistral clasico</t>
+  </si>
+  <si>
+    <t>Mistral barrica tostada</t>
+  </si>
+  <si>
+    <t>Capisco apple</t>
+  </si>
+  <si>
+    <t>Mistral fire</t>
+  </si>
+  <si>
+    <t>Mistral apple</t>
+  </si>
+  <si>
+    <t>Mistral cristalino</t>
+  </si>
+  <si>
+    <t>Mistral nobel honey + vaso</t>
+  </si>
+  <si>
+    <t>Campanario Sour</t>
+  </si>
+  <si>
+    <t>Andino Sour</t>
+  </si>
+  <si>
+    <t>Andino Sour mango</t>
+  </si>
+  <si>
+    <t>Sombrero Negro (blanco)</t>
+  </si>
+  <si>
+    <t>Sombrero Negro joven</t>
+  </si>
+  <si>
+    <t>Campanario piña colada</t>
+  </si>
+  <si>
+    <t>Campanario Mango colado</t>
+  </si>
+  <si>
+    <t>Campanario selccion creme</t>
+  </si>
+  <si>
+    <t>Carolans salted caramel</t>
+  </si>
+  <si>
+    <t>Carolans irish cream</t>
+  </si>
+  <si>
+    <t>Baileys original</t>
+  </si>
+  <si>
+    <t>Whiskey Blenders honey</t>
+  </si>
+  <si>
+    <t>Whiskey Blenders apple</t>
+  </si>
+  <si>
+    <t>Whiskey blenders pride</t>
+  </si>
+  <si>
+    <t>Ballantines</t>
+  </si>
+  <si>
+    <t>Jaggermeister</t>
+  </si>
+  <si>
+    <t>Buchanan's 12 años</t>
+  </si>
+  <si>
+    <t>Johnny Walker Red label</t>
+  </si>
+  <si>
+    <t>Jack Daniel's Honey</t>
+  </si>
+  <si>
+    <t>Jack Daniel's Fire</t>
+  </si>
+  <si>
+    <t>Old red + 1 vaso</t>
+  </si>
+  <si>
+    <t>Grant's</t>
+  </si>
+  <si>
+    <t>Amaretto</t>
+  </si>
+  <si>
+    <t>Fernet branca</t>
+  </si>
+  <si>
+    <t>Rossard fernet</t>
+  </si>
+  <si>
+    <t>Araucano</t>
+  </si>
+  <si>
+    <t>Barcelo añejo</t>
+  </si>
+  <si>
+    <t>Barcelo dorado</t>
+  </si>
+  <si>
+    <t>Havana club especial</t>
+  </si>
+  <si>
+    <t>Viejo de caldas 3 años</t>
+  </si>
+  <si>
+    <t>viejo de caldas 5 años</t>
+  </si>
+  <si>
+    <t>Sierra morena 5 años</t>
+  </si>
+  <si>
+    <t>Sierra morena Dorado</t>
+  </si>
+  <si>
+    <t>Sierra morena blanco</t>
+  </si>
+  <si>
+    <t>Mitjans dorado añejado</t>
+  </si>
+  <si>
+    <t>Bacardi carta de oro</t>
+  </si>
+  <si>
+    <t>Bacardi carta selecta</t>
+  </si>
+  <si>
+    <t>Bacardi carta blanca</t>
+  </si>
+  <si>
+    <t>cabo viejo añejado</t>
+  </si>
+  <si>
+    <t>Santa Teresa gran reserva</t>
+  </si>
+  <si>
+    <t>santa Gemita</t>
+  </si>
+  <si>
+    <t>Ron manzanilla</t>
+  </si>
+  <si>
+    <t>Antioqueño verde 24°</t>
+  </si>
+  <si>
+    <t>Antioqueño azul 29°</t>
+  </si>
+  <si>
+    <t>Amarillo (licor de anis)</t>
+  </si>
+  <si>
+    <t>petaca</t>
+  </si>
+  <si>
+    <t>200ml</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Jack Daniel's fire</t>
+  </si>
+  <si>
+    <t>Jack Daniel's honey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack Daniel's </t>
+  </si>
+  <si>
+    <t>Bacardi añejado</t>
+  </si>
+  <si>
+    <t>Ron manzanilla snata gemita</t>
+  </si>
+  <si>
+    <t>296ml</t>
+  </si>
+  <si>
+    <t>Ron santa gemita</t>
+  </si>
+  <si>
+    <t>Spirit passion fruit</t>
+  </si>
+  <si>
+    <t>Spirit mojito</t>
+  </si>
+  <si>
+    <t>Spirit cherry</t>
+  </si>
+  <si>
+    <t>275ml</t>
+  </si>
+  <si>
+    <t>Mistral ice blend</t>
+  </si>
+  <si>
+    <t>Mistral ice energy</t>
+  </si>
+  <si>
+    <t>Mistral ice super fruit</t>
+  </si>
+  <si>
+    <t>Capel ice berries</t>
+  </si>
+  <si>
+    <t>Capel ice mojito</t>
+  </si>
+  <si>
+    <t>Capel ice nuevo coctel</t>
+  </si>
+  <si>
+    <t>Capel ice citrus</t>
+  </si>
+  <si>
+    <t>Sierra morena mojito ice original</t>
+  </si>
+  <si>
+    <t>Sierra morena mojito ice maracuya</t>
+  </si>
+  <si>
+    <t>Sierra morena mojito ice berries</t>
+  </si>
+  <si>
+    <t>Score mango</t>
+  </si>
+  <si>
+    <t>Score mojito</t>
+  </si>
+  <si>
+    <t>Score gorilla</t>
+  </si>
+  <si>
+    <t>Rockstar original</t>
+  </si>
+  <si>
+    <t>Monster mangoloco</t>
+  </si>
+  <si>
+    <t>Monster zero azucar</t>
+  </si>
+  <si>
+    <t>Monster Ultra</t>
+  </si>
+  <si>
+    <t>Monster Ultra gold</t>
+  </si>
+  <si>
+    <t>Monster Original</t>
+  </si>
+  <si>
+    <t>Redbull</t>
+  </si>
+  <si>
+    <t>250ml</t>
+  </si>
+  <si>
+    <t>Redbull winter edition</t>
+  </si>
+  <si>
+    <t>Redbull the blue edition</t>
+  </si>
+  <si>
+    <t>Redbull the red edition</t>
+  </si>
+  <si>
+    <t>Redbull the yellow edition</t>
+  </si>
+  <si>
+    <t>Redbull the summer edition</t>
+  </si>
+  <si>
+    <t>Redbull the green edition</t>
+  </si>
+  <si>
+    <t>Redbull the purple edition</t>
+  </si>
+  <si>
+    <t>Limon soda</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Bils</t>
+  </si>
+  <si>
+    <t>Pap</t>
+  </si>
+  <si>
+    <t>Kem Piña</t>
+  </si>
+  <si>
+    <t>Canada Dry</t>
+  </si>
+  <si>
+    <t>Pepsi zero</t>
+  </si>
+  <si>
+    <t>Canada Dry agua tonica</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>Nobis piña</t>
+  </si>
+  <si>
+    <t>Coca Cola</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Coca Cola zero</t>
+  </si>
+  <si>
+    <t>MR BIG</t>
+  </si>
+  <si>
+    <t>2.5L</t>
+  </si>
+  <si>
+    <t>591ml</t>
+  </si>
+  <si>
+    <t>Cachantun strong gas</t>
+  </si>
+  <si>
+    <t>Mas pera</t>
+  </si>
+  <si>
+    <t>Mas mango</t>
+  </si>
+  <si>
+    <t>Vital gas</t>
+  </si>
+  <si>
+    <t>Vital sin gas</t>
+  </si>
+  <si>
+    <t>Manantial sin gas</t>
+  </si>
+  <si>
+    <t>Manantial gas</t>
+  </si>
+  <si>
+    <t>Mini bils</t>
+  </si>
+  <si>
+    <t>Mini pap</t>
+  </si>
+  <si>
+    <t>Mini pepsi</t>
+  </si>
+  <si>
+    <t>600ml</t>
+  </si>
+  <si>
+    <t>Mas limonada</t>
+  </si>
+  <si>
+    <t>Mas manzana</t>
+  </si>
+  <si>
+    <t>Mas granada</t>
+  </si>
+  <si>
+    <t>Whatt's arandano cero</t>
+  </si>
+  <si>
+    <t>whatt's tutifrutilla</t>
+  </si>
+  <si>
+    <t>whatt's manzana</t>
+  </si>
+  <si>
+    <t>whatt's piña</t>
+  </si>
+  <si>
+    <t>whatt's naranja</t>
+  </si>
+  <si>
+    <t>whatt's piña cero</t>
+  </si>
+  <si>
+    <t>whatt's durazno cero</t>
+  </si>
+  <si>
+    <t>whatt's damazco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whatt's durazno </t>
+  </si>
+  <si>
+    <t>300ml</t>
+  </si>
+  <si>
+    <t>whatt's frutilla</t>
+  </si>
+  <si>
+    <t>Cachantun gas</t>
+  </si>
+  <si>
+    <t>Cachantun sin gas</t>
+  </si>
+  <si>
+    <t>Powerade</t>
+  </si>
+  <si>
+    <t>1.1L</t>
+  </si>
+  <si>
+    <t>Gatorade frutos tropicales</t>
   </si>
 </sst>
 </file>
@@ -51,12 +869,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,8 +895,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,10 +1200,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -397,18 +1225,4590 @@
         <v>3</v>
       </c>
     </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>126</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>123</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B2" sqref="B2:B69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="21" customWidth="true" style="0"/>
+    <col min="4" max="4" width="23.42578125" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="2">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="2">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="2">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="2">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="2">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="2">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="2">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="2">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="2">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="2">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D108"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
       <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18">
         <v>5</v>
       </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>184</v>
+      </c>
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86">
+        <v>18</v>
+      </c>
+      <c r="D86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>191</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94">
+        <v>23</v>
+      </c>
+      <c r="D94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95">
+        <v>17</v>
+      </c>
+      <c r="D95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99">
+        <v>32</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104">
+        <v>23</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107">
+        <v>12</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>211</v>
+      </c>
+      <c r="B108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D87"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>241</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>1100</v>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>261</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>265</v>
+      </c>
+      <c r="B75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>272</v>
+      </c>
+      <c r="B80" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>274</v>
+      </c>
+      <c r="B85" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
